--- a/Standard_Training_Data.xlsx
+++ b/Standard_Training_Data.xlsx
@@ -436,82 +436,82 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>x1</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>x2</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>x3</t>
+          <t>s3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>x4</t>
+          <t>s4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>x5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>x6</t>
+          <t>s6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>x7</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>x8</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>x9</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>x10</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>x11</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>x12</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>x13</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>x14</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>x15</t>
+          <t>s15</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>x16</t>
+          <t>s16</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
